--- a/Londonfulldata.xlsx
+++ b/Londonfulldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mollycui/Desktop/R script/Research 10-Epid PMCMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3960A265-6903-8643-AE23-2F2E33D53FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAFFDB0-B240-E542-BA8B-3A0347CAC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{0EBDA8C6-2458-F240-A332-D6866B946CBC}"/>
+    <workbookView xWindow="1160" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{0EBDA8C6-2458-F240-A332-D6866B946CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,7 +389,7 @@
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K134" sqref="K134"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
